--- a/Cities.xlsx
+++ b/Cities.xlsx
@@ -21,19 +21,19 @@
     <t>Pune</t>
   </si>
   <si>
+    <t>Chennai</t>
+  </si>
+  <si>
     <t>Mumbai</t>
   </si>
   <si>
-    <t>Chennai</t>
-  </si>
-  <si>
     <t>Kolkata</t>
   </si>
   <si>
     <t>Delhi</t>
   </si>
   <si>
-    <t>jaipur</t>
+    <t>Jaipur</t>
   </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
@@ -483,7 +483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2b93ec49-c1e7-41ec-a2e5-6cb22a815d38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a4f04ae0-547c-481a-b47d-8a43c74d19b9}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -527,7 +527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ef7a69c1-1092-4835-9193-bd1b6001b3d5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a49e74d1-32ec-4e72-a0e8-e93bc4237794}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/Cities.xlsx
+++ b/Cities.xlsx
@@ -18,16 +18,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
     <t>Pune</t>
   </si>
   <si>
-    <t>Chennai</t>
-  </si>
-  <si>
     <t>Mumbai</t>
   </si>
   <si>
-    <t>Kolkata</t>
+    <t>Nashik</t>
   </si>
   <si>
     <t>Delhi</t>
@@ -483,7 +483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a4f04ae0-547c-481a-b47d-8a43c74d19b9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674f6bb6-0b76-421f-a364-86bc65ad0258}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -527,7 +527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a49e74d1-32ec-4e72-a0e8-e93bc4237794}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b0d3c7c2-974c-4391-8df8-f126e57df2da}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/Cities.xlsx
+++ b/Cities.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Practo-Web-Mini_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87BD1EF-A1A2-4C66-8FDB-EE50E3644EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="City_Names" sheetId="1" r:id="rId3"/>
-    <sheet name="Evaluation Warning" sheetId="2" r:id="rId4"/>
+    <sheet name="City_Names" sheetId="1" r:id="rId1"/>
+    <sheet name="Evaluation Warning" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Bangalore</t>
   </si>
@@ -31,9 +36,6 @@
   </si>
   <si>
     <t>Delhi</t>
-  </si>
-  <si>
-    <t>Jaipur</t>
   </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
@@ -42,8 +44,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -76,114 +78,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -483,41 +397,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674f6bb6-0b76-421f-a364-86bc65ad0258}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674F6BB6-0B76-421F-A364-86BC65AD0258}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="12.75">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="12.75">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="12.75">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="12.75">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="12.75">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="12.75">
-      <c r="A6" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -527,16 +438,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b0d3c7c2-974c-4391-8df8-f126e57df2da}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D3C7C2-974C-4391-8DF8-F126E57DF2DA}">
   <dimension ref="A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="1:1" ht="23.25" customHeight="1">
+    <row r="5" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Cities.xlsx
+++ b/Cities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Practo-Web-Mini_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87BD1EF-A1A2-4C66-8FDB-EE50E3644EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5030143A-7C6F-4B42-A67C-B065C97D12F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,10 @@
     <t>Nashik</t>
   </si>
   <si>
+    <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
+  </si>
+  <si>
     <t>Delhi</t>
-  </si>
-  <si>
-    <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -428,7 +428,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -447,7 +447,7 @@
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
